--- a/Check.xlsx
+++ b/Check.xlsx
@@ -16,24 +16,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>elakjlk</t>
-  </si>
-  <si>
-    <t>jsnvdkj</t>
-  </si>
-  <si>
-    <t>khvdkh</t>
-  </si>
-  <si>
-    <t>dvvjolkijs</t>
-  </si>
-  <si>
-    <t>vdnlkdvnlk</t>
-  </si>
-  <si>
-    <t>kdnlk</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+  <si>
+    <t>EmployeeName</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Basic Salary</t>
+  </si>
+  <si>
+    <t>Deduction</t>
+  </si>
+  <si>
+    <t>Take Home Salary</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
 </sst>
 </file>
@@ -69,8 +84,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,61 +390,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="34" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Check.xlsx
+++ b/Check.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>EmployeeName</t>
   </si>
@@ -49,6 +49,21 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>kabilan</t>
+  </si>
+  <si>
+    <t>Software Developer</t>
+  </si>
+  <si>
+    <t>g.r.kabilan@gmail.com</t>
+  </si>
+  <si>
+    <t>12/555,veerabatheranager,medavakkam</t>
+  </si>
+  <si>
+    <t>Kabilan@123</t>
   </si>
 </sst>
 </file>
@@ -390,21 +405,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="34" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="36.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="27.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -439,7 +455,43 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>80000</v>
+      </c>
+      <c r="G2">
+        <v>2000</v>
+      </c>
+      <c r="H2">
+        <v>64851.199999999997</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="J2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Check.xlsx
+++ b/Check.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>EmployeeName</t>
   </si>
@@ -64,16 +64,52 @@
   </si>
   <si>
     <t>Kabilan@123</t>
+  </si>
+  <si>
+    <t>christy</t>
+  </si>
+  <si>
+    <t>surya</t>
+  </si>
+  <si>
+    <t>djnkfj</t>
+  </si>
+  <si>
+    <t>kjkhky7sujdkfj</t>
+  </si>
+  <si>
+    <t>3k4nl3k@kdjbfk.kdj</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>jashkdjhfkjdhfkjhrk3h5kj3hoh</t>
+  </si>
+  <si>
+    <t>christyleenus7670@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -96,16 +132,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -407,20 +446,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="36.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="36.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -491,6 +530,7 @@
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1"/>
     <hyperlink ref="J2" r:id="rId2"/>
+    <hyperlink ref="I3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Check.xlsx
+++ b/Check.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>EmployeeName</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>christyleenus7670@gmail.com</t>
+  </si>
+  <si>
+    <t>djshkja375873thgdmn,an</t>
+  </si>
+  <si>
+    <t>christyleenus@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -444,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
@@ -523,6 +529,38 @@
         <v>13</v>
       </c>
       <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>70231.0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
         <v>15</v>
       </c>
     </row>
